--- a/getTranslationFromDeepL/eadsim任务分解-03-12(1).xlsx
+++ b/getTranslationFromDeepL/eadsim任务分解-03-12(1).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20372"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D3E57D-7703-4F4F-B514-4E76955AA80E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CCE64C-278B-46D3-B092-333430F0D92E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20712" windowHeight="13272" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作规划" sheetId="3" r:id="rId1"/>
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作规划!$A$1:$H$421</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="884">
   <si>
     <t xml:space="preserve">简介1-1 </t>
   </si>
@@ -12615,6 +12615,21 @@
   </si>
   <si>
     <t>商宇慧</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>374-383
+9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>359-372
+13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>279-288
+9</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -12822,7 +12837,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -12955,6 +12970,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -13301,22 +13325,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="H84" sqref="H84"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.86328125" customWidth="1"/>
-    <col min="3" max="3" width="22.265625" customWidth="1"/>
-    <col min="4" max="4" width="50.46484375" customWidth="1"/>
-    <col min="5" max="5" width="25.46484375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" customWidth="1"/>
+    <col min="4" max="4" width="50.44140625" customWidth="1"/>
+    <col min="5" max="5" width="25.44140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="18"/>
-    <col min="7" max="7" width="21.265625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="12.1328125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.21875" style="18" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>578</v>
       </c>
@@ -13336,7 +13360,7 @@
       <c r="G1" s="17"/>
       <c r="H1" s="15"/>
     </row>
-    <row r="2" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>399</v>
       </c>
@@ -13351,7 +13375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -13366,7 +13390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -13381,7 +13405,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>3.1</v>
       </c>
@@ -13390,7 +13414,7 @@
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C6" s="5" t="s">
         <v>5</v>
       </c>
@@ -13399,7 +13423,7 @@
       </c>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
         <v>6</v>
       </c>
@@ -13408,7 +13432,7 @@
       </c>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
         <v>8</v>
       </c>
@@ -13417,7 +13441,7 @@
       </c>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
@@ -13426,7 +13450,7 @@
       </c>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>3.2</v>
       </c>
@@ -13435,7 +13459,7 @@
       </c>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
@@ -13444,7 +13468,7 @@
       </c>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="5" t="s">
         <v>14</v>
       </c>
@@ -13453,7 +13477,7 @@
       </c>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C13" s="5" t="s">
         <v>16</v>
       </c>
@@ -13462,7 +13486,7 @@
       </c>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" s="5" t="s">
         <v>17</v>
       </c>
@@ -13471,7 +13495,7 @@
       </c>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>3.3</v>
       </c>
@@ -13480,7 +13504,7 @@
       </c>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:8" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>3.4</v>
       </c>
@@ -13489,7 +13513,7 @@
       </c>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
@@ -13504,7 +13528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -13513,7 +13537,7 @@
       </c>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <v>4.2</v>
       </c>
@@ -13522,7 +13546,7 @@
       </c>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" s="5" t="s">
         <v>21</v>
       </c>
@@ -13531,7 +13555,7 @@
       </c>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" s="5" t="s">
         <v>23</v>
       </c>
@@ -13540,7 +13564,7 @@
       </c>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <v>4.3</v>
       </c>
@@ -13549,7 +13573,7 @@
       </c>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -13563,7 +13587,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" s="5" t="s">
         <v>26</v>
       </c>
@@ -13572,7 +13596,7 @@
       </c>
       <c r="E24" s="10"/>
     </row>
-    <row r="25" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" s="5" t="s">
         <v>27</v>
       </c>
@@ -13581,7 +13605,7 @@
       </c>
       <c r="E25" s="10"/>
     </row>
-    <row r="26" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" s="5" t="s">
         <v>28</v>
       </c>
@@ -13590,7 +13614,7 @@
       </c>
       <c r="E26" s="10"/>
     </row>
-    <row r="27" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" s="5" t="s">
         <v>29</v>
       </c>
@@ -13599,7 +13623,7 @@
       </c>
       <c r="E27" s="10"/>
     </row>
-    <row r="28" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" s="5" t="s">
         <v>31</v>
       </c>
@@ -13608,7 +13632,7 @@
       </c>
       <c r="E28" s="10"/>
     </row>
-    <row r="29" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" s="5" t="s">
         <v>32</v>
       </c>
@@ -13617,7 +13641,7 @@
       </c>
       <c r="E29" s="10"/>
     </row>
-    <row r="30" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" s="5" t="s">
         <v>34</v>
       </c>
@@ -13626,7 +13650,7 @@
       </c>
       <c r="E30" s="10"/>
     </row>
-    <row r="31" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="4">
         <v>4.5</v>
       </c>
@@ -13638,7 +13662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="4">
         <v>4.5999999999999996</v>
       </c>
@@ -13652,7 +13676,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="3:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" s="5" t="s">
         <v>36</v>
       </c>
@@ -13661,7 +13685,7 @@
       </c>
       <c r="E33" s="10"/>
     </row>
-    <row r="34" spans="3:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C34" s="5" t="s">
         <v>38</v>
       </c>
@@ -13670,7 +13694,7 @@
       </c>
       <c r="E34" s="10"/>
     </row>
-    <row r="35" spans="3:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C35" s="5" t="s">
         <v>39</v>
       </c>
@@ -13679,7 +13703,7 @@
       </c>
       <c r="E35" s="10"/>
     </row>
-    <row r="36" spans="3:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C36" s="5" t="s">
         <v>40</v>
       </c>
@@ -13688,7 +13712,7 @@
       </c>
       <c r="E36" s="10"/>
     </row>
-    <row r="37" spans="3:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C37" s="5" t="s">
         <v>41</v>
       </c>
@@ -13697,7 +13721,7 @@
       </c>
       <c r="E37" s="10"/>
     </row>
-    <row r="38" spans="3:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C38" s="5" t="s">
         <v>43</v>
       </c>
@@ -13706,7 +13730,7 @@
       </c>
       <c r="E38" s="10"/>
     </row>
-    <row r="39" spans="3:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C39" s="5" t="s">
         <v>45</v>
       </c>
@@ -13715,7 +13739,7 @@
       </c>
       <c r="E39" s="12"/>
     </row>
-    <row r="40" spans="3:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C40" s="5" t="s">
         <v>46</v>
       </c>
@@ -13724,7 +13748,7 @@
       </c>
       <c r="E40" s="10"/>
     </row>
-    <row r="41" spans="3:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C41" s="5" t="s">
         <v>47</v>
       </c>
@@ -13733,7 +13757,7 @@
       </c>
       <c r="E41" s="10"/>
     </row>
-    <row r="42" spans="3:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C42" s="5" t="s">
         <v>48</v>
       </c>
@@ -13742,7 +13766,7 @@
       </c>
       <c r="E42" s="10"/>
     </row>
-    <row r="43" spans="3:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C43" s="5" t="s">
         <v>49</v>
       </c>
@@ -13751,7 +13775,7 @@
       </c>
       <c r="E43" s="10"/>
     </row>
-    <row r="44" spans="3:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C44" s="5" t="s">
         <v>50</v>
       </c>
@@ -13760,7 +13784,7 @@
       </c>
       <c r="E44" s="10"/>
     </row>
-    <row r="45" spans="3:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C45" s="5" t="s">
         <v>52</v>
       </c>
@@ -13769,7 +13793,7 @@
       </c>
       <c r="E45" s="10"/>
     </row>
-    <row r="46" spans="3:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C46" s="5" t="s">
         <v>53</v>
       </c>
@@ -13778,7 +13802,7 @@
       </c>
       <c r="E46" s="10"/>
     </row>
-    <row r="47" spans="3:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C47" s="5" t="s">
         <v>54</v>
       </c>
@@ -13787,7 +13811,7 @@
       </c>
       <c r="E47" s="10"/>
     </row>
-    <row r="48" spans="3:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C48" s="5" t="s">
         <v>56</v>
       </c>
@@ -13796,7 +13820,7 @@
       </c>
       <c r="E48" s="10"/>
     </row>
-    <row r="49" spans="2:8" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="4">
         <v>4.7</v>
       </c>
@@ -13805,7 +13829,7 @@
       </c>
       <c r="E49" s="11"/>
     </row>
-    <row r="50" spans="2:8" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C50" s="5" t="s">
         <v>57</v>
       </c>
@@ -13819,7 +13843,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C51" s="5" t="s">
         <v>58</v>
       </c>
@@ -13833,7 +13857,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C52" s="5" t="s">
         <v>59</v>
       </c>
@@ -13851,7 +13875,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C53" s="5" t="s">
         <v>60</v>
       </c>
@@ -13865,7 +13889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C54" s="5" t="s">
         <v>62</v>
       </c>
@@ -13880,7 +13904,7 @@
       </c>
       <c r="G54" s="30"/>
     </row>
-    <row r="55" spans="2:8" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C55" s="5" t="s">
         <v>63</v>
       </c>
@@ -13895,7 +13919,7 @@
       </c>
       <c r="G55" s="30"/>
     </row>
-    <row r="56" spans="2:8" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C56" s="5" t="s">
         <v>64</v>
       </c>
@@ -13910,7 +13934,7 @@
       </c>
       <c r="G56" s="33"/>
     </row>
-    <row r="57" spans="2:8" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C57" s="5" t="s">
         <v>65</v>
       </c>
@@ -13925,7 +13949,7 @@
       </c>
       <c r="G57" s="30"/>
     </row>
-    <row r="58" spans="2:8" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C58" s="5" t="s">
         <v>66</v>
       </c>
@@ -13938,9 +13962,11 @@
       <c r="F58" s="18">
         <v>7</v>
       </c>
-      <c r="G58" s="30"/>
-    </row>
-    <row r="59" spans="2:8" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="G58" s="46" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C59" s="5" t="s">
         <v>67</v>
       </c>
@@ -13953,9 +13979,9 @@
       <c r="F59" s="18">
         <v>4</v>
       </c>
-      <c r="G59" s="30"/>
-    </row>
-    <row r="60" spans="2:8" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="G59" s="46"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C60" s="5" t="s">
         <v>400</v>
       </c>
@@ -13970,7 +13996,7 @@
       </c>
       <c r="G60" s="30"/>
     </row>
-    <row r="61" spans="2:8" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C61" s="5" t="s">
         <v>68</v>
       </c>
@@ -13985,7 +14011,7 @@
       </c>
       <c r="G61" s="30"/>
     </row>
-    <row r="62" spans="2:8" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C62" s="5" t="s">
         <v>69</v>
       </c>
@@ -14000,7 +14026,7 @@
       </c>
       <c r="G62" s="30"/>
     </row>
-    <row r="63" spans="2:8" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C63" s="5" t="s">
         <v>70</v>
       </c>
@@ -14015,7 +14041,7 @@
       </c>
       <c r="G63" s="30"/>
     </row>
-    <row r="64" spans="2:8" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C64" s="5" t="s">
         <v>71</v>
       </c>
@@ -14030,7 +14056,7 @@
       </c>
       <c r="G64" s="30"/>
     </row>
-    <row r="65" spans="3:8" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C65" s="5" t="s">
         <v>72</v>
       </c>
@@ -14043,9 +14069,11 @@
       <c r="F65" s="18">
         <v>3</v>
       </c>
-      <c r="G65" s="30"/>
-    </row>
-    <row r="66" spans="3:8" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="G65" s="46" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C66" s="5" t="s">
         <v>73</v>
       </c>
@@ -14058,8 +14086,9 @@
       <c r="F66" s="18">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="3:8" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="G66" s="46"/>
+    </row>
+    <row r="67" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C67" s="5" t="s">
         <v>74</v>
       </c>
@@ -14072,8 +14101,9 @@
       <c r="F67" s="18">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="3:8" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="G67" s="46"/>
+    </row>
+    <row r="68" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C68" s="5" t="s">
         <v>75</v>
       </c>
@@ -14086,8 +14116,9 @@
       <c r="F68" s="18">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="3:8" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="G68" s="46"/>
+    </row>
+    <row r="69" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C69" s="5" t="s">
         <v>76</v>
       </c>
@@ -14100,8 +14131,9 @@
       <c r="F69" s="18">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="3:8" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="G69" s="46"/>
+    </row>
+    <row r="70" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C70" s="5" t="s">
         <v>77</v>
       </c>
@@ -14115,7 +14147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="3:8" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C71" s="5" t="s">
         <v>78</v>
       </c>
@@ -14128,8 +14160,11 @@
       <c r="F71" s="18">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="3:8" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="G71" s="47" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="72" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C72" s="5" t="s">
         <v>80</v>
       </c>
@@ -14142,8 +14177,9 @@
       <c r="F72" s="18">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="3:8" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="G72" s="48"/>
+    </row>
+    <row r="73" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C73" s="5" t="s">
         <v>82</v>
       </c>
@@ -14156,8 +14192,9 @@
       <c r="F73" s="18">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="3:8" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="G73" s="48"/>
+    </row>
+    <row r="74" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C74" s="5" t="s">
         <v>83</v>
       </c>
@@ -14170,8 +14207,9 @@
       <c r="F74" s="18">
         <v>3</v>
       </c>
-    </row>
-    <row r="75" spans="3:8" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="G74" s="48"/>
+    </row>
+    <row r="75" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C75" s="5" t="s">
         <v>84</v>
       </c>
@@ -14184,8 +14222,9 @@
       <c r="F75" s="18">
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="3:8" ht="13.9" x14ac:dyDescent="0.3">
+      <c r="G75" s="48"/>
+    </row>
+    <row r="76" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C76" s="5" t="s">
         <v>85</v>
       </c>
@@ -14199,7 +14238,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="3:8" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C77" s="5" t="s">
         <v>87</v>
       </c>
@@ -14217,7 +14256,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="78" spans="3:8" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C78" s="5" t="s">
         <v>88</v>
       </c>
@@ -14231,7 +14270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="3:8" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C79" s="5" t="s">
         <v>398</v>
       </c>
@@ -14245,7 +14284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="3:8" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C80" s="5" t="s">
         <v>89</v>
       </c>
@@ -14259,7 +14298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C81" s="5" t="s">
         <v>90</v>
       </c>
@@ -14273,7 +14312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C82" s="5" t="s">
         <v>401</v>
       </c>
@@ -14285,7 +14324,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="83" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C83" s="5" t="s">
         <v>402</v>
       </c>
@@ -14299,7 +14338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C84" s="5" t="s">
         <v>403</v>
       </c>
@@ -14313,7 +14352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C85" s="5" t="s">
         <v>91</v>
       </c>
@@ -14327,7 +14366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C86" s="5" t="s">
         <v>93</v>
       </c>
@@ -14341,7 +14380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C87" s="5" t="s">
         <v>95</v>
       </c>
@@ -14355,7 +14394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B88" s="4">
         <v>4.8</v>
       </c>
@@ -14369,7 +14408,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C89" s="5" t="s">
         <v>97</v>
       </c>
@@ -14382,7 +14421,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="90" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C90" s="5" t="s">
         <v>98</v>
       </c>
@@ -14391,7 +14430,7 @@
       </c>
       <c r="E90" s="10"/>
     </row>
-    <row r="91" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C91" s="5" t="s">
         <v>100</v>
       </c>
@@ -14400,7 +14439,7 @@
       </c>
       <c r="E91" s="10"/>
     </row>
-    <row r="92" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C92" s="5" t="s">
         <v>102</v>
       </c>
@@ -14409,7 +14448,7 @@
       </c>
       <c r="E92" s="10"/>
     </row>
-    <row r="93" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C93" s="5" t="s">
         <v>104</v>
       </c>
@@ -14418,7 +14457,7 @@
       </c>
       <c r="E93" s="10"/>
     </row>
-    <row r="94" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C94" s="5" t="s">
         <v>105</v>
       </c>
@@ -14427,7 +14466,7 @@
       </c>
       <c r="E94" s="10"/>
     </row>
-    <row r="95" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B95" s="4" t="s">
         <v>106</v>
       </c>
@@ -14441,7 +14480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C96" s="5" t="s">
         <v>107</v>
       </c>
@@ -14450,7 +14489,7 @@
       </c>
       <c r="E96" s="10"/>
     </row>
-    <row r="97" spans="2:8" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C97" s="5" t="s">
         <v>109</v>
       </c>
@@ -14459,7 +14498,7 @@
       </c>
       <c r="E97" s="10"/>
     </row>
-    <row r="98" spans="2:8" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C98" s="5" t="s">
         <v>110</v>
       </c>
@@ -14468,7 +14507,7 @@
       </c>
       <c r="E98" s="10"/>
     </row>
-    <row r="99" spans="2:8" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C99" s="5" t="s">
         <v>111</v>
       </c>
@@ -14477,7 +14516,7 @@
       </c>
       <c r="E99" s="10"/>
     </row>
-    <row r="100" spans="2:8" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" s="4" t="s">
         <v>112</v>
       </c>
@@ -14495,7 +14534,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="101" spans="2:8" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C101" s="5" t="s">
         <v>114</v>
       </c>
@@ -14504,7 +14543,7 @@
       </c>
       <c r="E101" s="10"/>
     </row>
-    <row r="102" spans="2:8" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C102" s="5" t="s">
         <v>116</v>
       </c>
@@ -14513,7 +14552,7 @@
       </c>
       <c r="E102" s="10"/>
     </row>
-    <row r="103" spans="2:8" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C103" s="5" t="s">
         <v>118</v>
       </c>
@@ -14522,7 +14561,7 @@
       </c>
       <c r="E103" s="10"/>
     </row>
-    <row r="104" spans="2:8" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C104" s="5" t="s">
         <v>119</v>
       </c>
@@ -14531,7 +14570,7 @@
       </c>
       <c r="E104" s="10"/>
     </row>
-    <row r="105" spans="2:8" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C105" s="5" t="s">
         <v>121</v>
       </c>
@@ -14540,7 +14579,7 @@
       </c>
       <c r="E105" s="10"/>
     </row>
-    <row r="106" spans="2:8" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C106" s="5" t="s">
         <v>123</v>
       </c>
@@ -14549,7 +14588,7 @@
       </c>
       <c r="E106" s="10"/>
     </row>
-    <row r="107" spans="2:8" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C107" s="5" t="s">
         <v>125</v>
       </c>
@@ -14558,7 +14597,7 @@
       </c>
       <c r="E107" s="10"/>
     </row>
-    <row r="108" spans="2:8" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108" s="4" t="s">
         <v>126</v>
       </c>
@@ -14567,7 +14606,7 @@
       </c>
       <c r="E108" s="11"/>
     </row>
-    <row r="109" spans="2:8" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C109" s="5" t="s">
         <v>127</v>
       </c>
@@ -14576,7 +14615,7 @@
       </c>
       <c r="E109" s="10"/>
     </row>
-    <row r="110" spans="2:8" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C110" s="5" t="s">
         <v>129</v>
       </c>
@@ -14590,7 +14629,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="111" spans="2:8" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C111" s="5" t="s">
         <v>130</v>
       </c>
@@ -14604,7 +14643,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="112" spans="2:8" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C112" s="5" t="s">
         <v>132</v>
       </c>
@@ -14613,7 +14652,7 @@
       </c>
       <c r="E112" s="10"/>
     </row>
-    <row r="113" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C113" s="5" t="s">
         <v>133</v>
       </c>
@@ -14622,7 +14661,7 @@
       </c>
       <c r="E113" s="10"/>
     </row>
-    <row r="114" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C114" s="5" t="s">
         <v>134</v>
       </c>
@@ -14631,7 +14670,7 @@
       </c>
       <c r="E114" s="10"/>
     </row>
-    <row r="115" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B115" s="4" t="s">
         <v>135</v>
       </c>
@@ -14645,7 +14684,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="116" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C116" s="5" t="s">
         <v>137</v>
       </c>
@@ -14654,7 +14693,7 @@
       </c>
       <c r="E116" s="10"/>
     </row>
-    <row r="117" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C117" s="5" t="s">
         <v>139</v>
       </c>
@@ -14663,7 +14702,7 @@
       </c>
       <c r="E117" s="10"/>
     </row>
-    <row r="118" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C118" s="5" t="s">
         <v>141</v>
       </c>
@@ -14672,7 +14711,7 @@
       </c>
       <c r="E118" s="10"/>
     </row>
-    <row r="119" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C119" s="5" t="s">
         <v>143</v>
       </c>
@@ -14681,7 +14720,7 @@
       </c>
       <c r="E119" s="10"/>
     </row>
-    <row r="120" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C120" s="5" t="s">
         <v>144</v>
       </c>
@@ -14690,7 +14729,7 @@
       </c>
       <c r="E120" s="10"/>
     </row>
-    <row r="121" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B121" s="4" t="s">
         <v>145</v>
       </c>
@@ -14704,7 +14743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C122" s="5" t="s">
         <v>146</v>
       </c>
@@ -14713,7 +14752,7 @@
       </c>
       <c r="E122" s="10"/>
     </row>
-    <row r="123" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C123" s="5" t="s">
         <v>404</v>
       </c>
@@ -14722,7 +14761,7 @@
       </c>
       <c r="E123" s="9"/>
     </row>
-    <row r="124" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C124" s="5" t="s">
         <v>405</v>
       </c>
@@ -14731,7 +14770,7 @@
       </c>
       <c r="E124" s="9"/>
     </row>
-    <row r="125" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B125" s="4" t="s">
         <v>147</v>
       </c>
@@ -14745,7 +14784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C126" s="5" t="s">
         <v>148</v>
       </c>
@@ -14754,7 +14793,7 @@
       </c>
       <c r="E126" s="10"/>
     </row>
-    <row r="127" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C127" s="5" t="s">
         <v>149</v>
       </c>
@@ -14763,7 +14802,7 @@
       </c>
       <c r="E127" s="10"/>
     </row>
-    <row r="128" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B128" s="4" t="s">
         <v>150</v>
       </c>
@@ -14777,7 +14816,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="129" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C129" s="5" t="s">
         <v>151</v>
       </c>
@@ -14786,7 +14825,7 @@
       </c>
       <c r="E129" s="12"/>
     </row>
-    <row r="130" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C130" s="5" t="s">
         <v>153</v>
       </c>
@@ -14795,7 +14834,7 @@
       </c>
       <c r="E130" s="12"/>
     </row>
-    <row r="131" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C131" s="5" t="s">
         <v>155</v>
       </c>
@@ -14804,7 +14843,7 @@
       </c>
       <c r="E131" s="10"/>
     </row>
-    <row r="132" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B132" s="4" t="s">
         <v>156</v>
       </c>
@@ -14818,7 +14857,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C133" s="5" t="s">
         <v>158</v>
       </c>
@@ -14827,7 +14866,7 @@
       </c>
       <c r="E133" s="10"/>
     </row>
-    <row r="134" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C134" s="5" t="s">
         <v>160</v>
       </c>
@@ -14836,7 +14875,7 @@
       </c>
       <c r="E134" s="10"/>
     </row>
-    <row r="135" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C135" s="5" t="s">
         <v>161</v>
       </c>
@@ -14845,7 +14884,7 @@
       </c>
       <c r="E135" s="10"/>
     </row>
-    <row r="136" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C136" s="5" t="s">
         <v>163</v>
       </c>
@@ -14854,7 +14893,7 @@
       </c>
       <c r="E136" s="10"/>
     </row>
-    <row r="137" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C137" s="5" t="s">
         <v>165</v>
       </c>
@@ -14863,7 +14902,7 @@
       </c>
       <c r="E137" s="10"/>
     </row>
-    <row r="138" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C138" s="5" t="s">
         <v>167</v>
       </c>
@@ -14872,7 +14911,7 @@
       </c>
       <c r="E138" s="10"/>
     </row>
-    <row r="139" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C139" s="5" t="s">
         <v>169</v>
       </c>
@@ -14881,7 +14920,7 @@
       </c>
       <c r="E139" s="10"/>
     </row>
-    <row r="140" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C140" s="5" t="s">
         <v>170</v>
       </c>
@@ -14890,7 +14929,7 @@
       </c>
       <c r="E140" s="10"/>
     </row>
-    <row r="141" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C141" s="5" t="s">
         <v>172</v>
       </c>
@@ -14899,7 +14938,7 @@
       </c>
       <c r="E141" s="10"/>
     </row>
-    <row r="142" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B142" s="4" t="s">
         <v>174</v>
       </c>
@@ -14913,7 +14952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B143" s="4" t="s">
         <v>176</v>
       </c>
@@ -14927,7 +14966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C144" s="5" t="s">
         <v>177</v>
       </c>
@@ -14936,7 +14975,7 @@
       </c>
       <c r="E144" s="10"/>
     </row>
-    <row r="145" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C145" s="5" t="s">
         <v>178</v>
       </c>
@@ -14945,7 +14984,7 @@
       </c>
       <c r="E145" s="10"/>
     </row>
-    <row r="146" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C146" s="5" t="s">
         <v>179</v>
       </c>
@@ -14954,7 +14993,7 @@
       </c>
       <c r="E146" s="10"/>
     </row>
-    <row r="147" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C147" s="5" t="s">
         <v>180</v>
       </c>
@@ -14963,7 +15002,7 @@
       </c>
       <c r="E147" s="10"/>
     </row>
-    <row r="148" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C148" s="5" t="s">
         <v>181</v>
       </c>
@@ -14972,7 +15011,7 @@
       </c>
       <c r="E148" s="10"/>
     </row>
-    <row r="149" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B149" s="4" t="s">
         <v>183</v>
       </c>
@@ -14986,7 +15025,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C150" s="5" t="s">
         <v>184</v>
       </c>
@@ -14995,7 +15034,7 @@
       </c>
       <c r="E150" s="10"/>
     </row>
-    <row r="151" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C151" s="5" t="s">
         <v>185</v>
       </c>
@@ -15004,7 +15043,7 @@
       </c>
       <c r="E151" s="10"/>
     </row>
-    <row r="152" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C152" s="5" t="s">
         <v>186</v>
       </c>
@@ -15013,7 +15052,7 @@
       </c>
       <c r="E152" s="10"/>
     </row>
-    <row r="153" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C153" s="5" t="s">
         <v>187</v>
       </c>
@@ -15022,7 +15061,7 @@
       </c>
       <c r="E153" s="10"/>
     </row>
-    <row r="154" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C154" s="5" t="s">
         <v>188</v>
       </c>
@@ -15031,7 +15070,7 @@
       </c>
       <c r="E154" s="10"/>
     </row>
-    <row r="155" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C155" s="5" t="s">
         <v>189</v>
       </c>
@@ -15040,7 +15079,7 @@
       </c>
       <c r="E155" s="10"/>
     </row>
-    <row r="156" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C156" s="5" t="s">
         <v>190</v>
       </c>
@@ -15049,7 +15088,7 @@
       </c>
       <c r="E156" s="10"/>
     </row>
-    <row r="157" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C157" s="5" t="s">
         <v>192</v>
       </c>
@@ -15058,7 +15097,7 @@
       </c>
       <c r="E157" s="10"/>
     </row>
-    <row r="158" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C158" s="5" t="s">
         <v>193</v>
       </c>
@@ -15067,7 +15106,7 @@
       </c>
       <c r="E158" s="10"/>
     </row>
-    <row r="159" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C159" s="5" t="s">
         <v>194</v>
       </c>
@@ -15076,7 +15115,7 @@
       </c>
       <c r="E159" s="10"/>
     </row>
-    <row r="160" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C160" s="5" t="s">
         <v>195</v>
       </c>
@@ -15085,7 +15124,7 @@
       </c>
       <c r="E160" s="10"/>
     </row>
-    <row r="161" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C161" s="5" t="s">
         <v>196</v>
       </c>
@@ -15094,7 +15133,7 @@
       </c>
       <c r="E161" s="10"/>
     </row>
-    <row r="162" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C162" s="5" t="s">
         <v>197</v>
       </c>
@@ -15103,7 +15142,7 @@
       </c>
       <c r="E162" s="10"/>
     </row>
-    <row r="163" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C163" s="5" t="s">
         <v>198</v>
       </c>
@@ -15112,7 +15151,7 @@
       </c>
       <c r="E163" s="10"/>
     </row>
-    <row r="164" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C164" s="5" t="s">
         <v>199</v>
       </c>
@@ -15121,7 +15160,7 @@
       </c>
       <c r="E164" s="10"/>
     </row>
-    <row r="165" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C165" s="5" t="s">
         <v>200</v>
       </c>
@@ -15130,7 +15169,7 @@
       </c>
       <c r="E165" s="10"/>
     </row>
-    <row r="166" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B166" s="4" t="s">
         <v>201</v>
       </c>
@@ -15144,7 +15183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C167" s="5" t="s">
         <v>406</v>
       </c>
@@ -15153,7 +15192,7 @@
       </c>
       <c r="E167" s="10"/>
     </row>
-    <row r="168" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C168" s="5" t="s">
         <v>202</v>
       </c>
@@ -15162,7 +15201,7 @@
       </c>
       <c r="E168" s="10"/>
     </row>
-    <row r="169" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C169" s="5" t="s">
         <v>204</v>
       </c>
@@ -15171,7 +15210,7 @@
       </c>
       <c r="E169" s="10"/>
     </row>
-    <row r="170" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C170" s="5" t="s">
         <v>205</v>
       </c>
@@ -15180,7 +15219,7 @@
       </c>
       <c r="E170" s="10"/>
     </row>
-    <row r="171" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C171" s="5" t="s">
         <v>207</v>
       </c>
@@ -15189,7 +15228,7 @@
       </c>
       <c r="E171" s="10"/>
     </row>
-    <row r="172" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C172" s="5" t="s">
         <v>209</v>
       </c>
@@ -15198,7 +15237,7 @@
       </c>
       <c r="E172" s="10"/>
     </row>
-    <row r="173" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C173" s="4" t="s">
         <v>210</v>
       </c>
@@ -15212,7 +15251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>211</v>
       </c>
@@ -15222,7 +15261,7 @@
       </c>
       <c r="E174" s="9"/>
     </row>
-    <row r="175" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B175" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -15231,7 +15270,7 @@
       </c>
       <c r="E175" s="11"/>
     </row>
-    <row r="176" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B176" s="4">
         <v>5.2</v>
       </c>
@@ -15240,7 +15279,7 @@
       </c>
       <c r="E176" s="11"/>
     </row>
-    <row r="177" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C177" s="5" t="s">
         <v>214</v>
       </c>
@@ -15249,7 +15288,7 @@
       </c>
       <c r="E177" s="10"/>
     </row>
-    <row r="178" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C178" s="5" t="s">
         <v>216</v>
       </c>
@@ -15258,7 +15297,7 @@
       </c>
       <c r="E178" s="10"/>
     </row>
-    <row r="179" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B179" s="4">
         <v>5.3</v>
       </c>
@@ -15267,7 +15306,7 @@
       </c>
       <c r="E179" s="11"/>
     </row>
-    <row r="180" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B180" s="4">
         <v>5.4</v>
       </c>
@@ -15281,7 +15320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C181" s="5" t="s">
         <v>219</v>
       </c>
@@ -15290,7 +15329,7 @@
       </c>
       <c r="E181" s="10"/>
     </row>
-    <row r="182" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C182" s="5" t="s">
         <v>221</v>
       </c>
@@ -15299,7 +15338,7 @@
       </c>
       <c r="E182" s="10"/>
     </row>
-    <row r="183" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C183" s="5" t="s">
         <v>222</v>
       </c>
@@ -15308,7 +15347,7 @@
       </c>
       <c r="E183" s="10"/>
     </row>
-    <row r="184" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C184" s="5" t="s">
         <v>224</v>
       </c>
@@ -15317,7 +15356,7 @@
       </c>
       <c r="E184" s="10"/>
     </row>
-    <row r="185" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C185" s="5" t="s">
         <v>225</v>
       </c>
@@ -15326,7 +15365,7 @@
       </c>
       <c r="E185" s="10"/>
     </row>
-    <row r="186" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B186" s="4" t="s">
         <v>226</v>
       </c>
@@ -15340,7 +15379,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="187" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C187" s="5" t="s">
         <v>227</v>
       </c>
@@ -15349,7 +15388,7 @@
       </c>
       <c r="E187" s="10"/>
     </row>
-    <row r="188" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C188" s="5" t="s">
         <v>228</v>
       </c>
@@ -15358,7 +15397,7 @@
       </c>
       <c r="E188" s="10"/>
     </row>
-    <row r="189" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C189" s="5" t="s">
         <v>230</v>
       </c>
@@ -15367,7 +15406,7 @@
       </c>
       <c r="E189" s="10"/>
     </row>
-    <row r="190" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C190" s="5" t="s">
         <v>231</v>
       </c>
@@ -15376,7 +15415,7 @@
       </c>
       <c r="E190" s="10"/>
     </row>
-    <row r="191" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C191" s="5" t="s">
         <v>232</v>
       </c>
@@ -15385,7 +15424,7 @@
       </c>
       <c r="E191" s="10"/>
     </row>
-    <row r="192" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B192" s="4">
         <v>5.6</v>
       </c>
@@ -15399,7 +15438,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="193" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C193" s="5" t="s">
         <v>233</v>
       </c>
@@ -15408,7 +15447,7 @@
       </c>
       <c r="E193" s="10"/>
     </row>
-    <row r="194" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C194" s="5" t="s">
         <v>234</v>
       </c>
@@ -15417,7 +15456,7 @@
       </c>
       <c r="E194" s="10"/>
     </row>
-    <row r="195" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C195" s="5" t="s">
         <v>235</v>
       </c>
@@ -15426,7 +15465,7 @@
       </c>
       <c r="E195" s="10"/>
     </row>
-    <row r="196" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C196" s="5" t="s">
         <v>236</v>
       </c>
@@ -15435,7 +15474,7 @@
       </c>
       <c r="E196" s="10"/>
     </row>
-    <row r="197" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C197" s="5" t="s">
         <v>237</v>
       </c>
@@ -15444,7 +15483,7 @@
       </c>
       <c r="E197" s="10"/>
     </row>
-    <row r="198" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C198" s="5" t="s">
         <v>238</v>
       </c>
@@ -15453,7 +15492,7 @@
       </c>
       <c r="E198" s="10"/>
     </row>
-    <row r="199" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C199" s="5" t="s">
         <v>239</v>
       </c>
@@ -15462,7 +15501,7 @@
       </c>
       <c r="E199" s="10"/>
     </row>
-    <row r="200" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C200" s="5" t="s">
         <v>240</v>
       </c>
@@ -15471,7 +15510,7 @@
       </c>
       <c r="E200" s="10"/>
     </row>
-    <row r="201" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C201" s="5" t="s">
         <v>241</v>
       </c>
@@ -15480,7 +15519,7 @@
       </c>
       <c r="E201" s="10"/>
     </row>
-    <row r="202" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C202" s="5" t="s">
         <v>242</v>
       </c>
@@ -15489,7 +15528,7 @@
       </c>
       <c r="E202" s="10"/>
     </row>
-    <row r="203" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C203" s="5" t="s">
         <v>243</v>
       </c>
@@ -15498,7 +15537,7 @@
       </c>
       <c r="E203" s="10"/>
     </row>
-    <row r="204" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C204" s="5" t="s">
         <v>244</v>
       </c>
@@ -15507,7 +15546,7 @@
       </c>
       <c r="E204" s="10"/>
     </row>
-    <row r="205" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C205" s="5" t="s">
         <v>245</v>
       </c>
@@ -15516,7 +15555,7 @@
       </c>
       <c r="E205" s="10"/>
     </row>
-    <row r="206" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C206" s="5" t="s">
         <v>246</v>
       </c>
@@ -15525,7 +15564,7 @@
       </c>
       <c r="E206" s="10"/>
     </row>
-    <row r="207" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B207" s="4">
         <v>5.7</v>
       </c>
@@ -15539,7 +15578,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="208" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C208" s="5" t="s">
         <v>248</v>
       </c>
@@ -15548,7 +15587,7 @@
       </c>
       <c r="E208" s="10"/>
     </row>
-    <row r="209" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C209" s="5" t="s">
         <v>250</v>
       </c>
@@ -15557,7 +15596,7 @@
       </c>
       <c r="E209" s="10"/>
     </row>
-    <row r="210" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C210" s="5" t="s">
         <v>252</v>
       </c>
@@ -15566,7 +15605,7 @@
       </c>
       <c r="E210" s="10"/>
     </row>
-    <row r="211" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C211" s="5" t="s">
         <v>254</v>
       </c>
@@ -15575,7 +15614,7 @@
       </c>
       <c r="E211" s="10"/>
     </row>
-    <row r="212" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C212" s="5" t="s">
         <v>256</v>
       </c>
@@ -15584,7 +15623,7 @@
       </c>
       <c r="E212" s="10"/>
     </row>
-    <row r="213" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C213" s="5" t="s">
         <v>258</v>
       </c>
@@ -15593,7 +15632,7 @@
       </c>
       <c r="E213" s="10"/>
     </row>
-    <row r="214" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C214" s="5" t="s">
         <v>259</v>
       </c>
@@ -15602,7 +15641,7 @@
       </c>
       <c r="E214" s="10"/>
     </row>
-    <row r="215" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B215" s="4" t="s">
         <v>261</v>
       </c>
@@ -15616,7 +15655,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="216" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C216" s="5" t="s">
         <v>263</v>
       </c>
@@ -15625,7 +15664,7 @@
       </c>
       <c r="E216" s="10"/>
     </row>
-    <row r="217" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C217" s="5" t="s">
         <v>264</v>
       </c>
@@ -15634,7 +15673,7 @@
       </c>
       <c r="E217" s="10"/>
     </row>
-    <row r="218" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C218" s="5" t="s">
         <v>265</v>
       </c>
@@ -15643,7 +15682,7 @@
       </c>
       <c r="E218" s="10"/>
     </row>
-    <row r="219" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C219" s="5" t="s">
         <v>266</v>
       </c>
@@ -15652,7 +15691,7 @@
       </c>
       <c r="E219" s="10"/>
     </row>
-    <row r="220" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C220" s="5" t="s">
         <v>267</v>
       </c>
@@ -15661,7 +15700,7 @@
       </c>
       <c r="E220" s="10"/>
     </row>
-    <row r="221" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B221" s="4">
         <v>5.9</v>
       </c>
@@ -15675,7 +15714,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="222" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C222" s="5" t="s">
         <v>269</v>
       </c>
@@ -15684,7 +15723,7 @@
       </c>
       <c r="E222" s="10"/>
     </row>
-    <row r="223" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C223" s="5" t="s">
         <v>270</v>
       </c>
@@ -15693,7 +15732,7 @@
       </c>
       <c r="E223" s="10"/>
     </row>
-    <row r="224" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C224" s="5" t="s">
         <v>271</v>
       </c>
@@ -15702,7 +15741,7 @@
       </c>
       <c r="E224" s="10"/>
     </row>
-    <row r="225" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C225" s="5" t="s">
         <v>272</v>
       </c>
@@ -15711,7 +15750,7 @@
       </c>
       <c r="E225" s="10"/>
     </row>
-    <row r="226" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C226" s="5" t="s">
         <v>273</v>
       </c>
@@ -15720,7 +15759,7 @@
       </c>
       <c r="E226" s="10"/>
     </row>
-    <row r="227" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C227" s="5" t="s">
         <v>274</v>
       </c>
@@ -15729,7 +15768,7 @@
       </c>
       <c r="E227" s="10"/>
     </row>
-    <row r="228" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C228" s="5" t="s">
         <v>276</v>
       </c>
@@ -15738,7 +15777,7 @@
       </c>
       <c r="E228" s="10"/>
     </row>
-    <row r="229" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C229" s="5" t="s">
         <v>278</v>
       </c>
@@ -15747,7 +15786,7 @@
       </c>
       <c r="E229" s="10"/>
     </row>
-    <row r="230" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B230" s="4" t="s">
         <v>280</v>
       </c>
@@ -15761,7 +15800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B231" s="4" t="s">
         <v>282</v>
       </c>
@@ -15775,7 +15814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C232" s="5" t="s">
         <v>283</v>
       </c>
@@ -15784,7 +15823,7 @@
       </c>
       <c r="E232" s="12"/>
     </row>
-    <row r="233" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C233" s="5" t="s">
         <v>284</v>
       </c>
@@ -15793,7 +15832,7 @@
       </c>
       <c r="E233" s="12"/>
     </row>
-    <row r="234" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C234" s="5" t="s">
         <v>285</v>
       </c>
@@ -15802,7 +15841,7 @@
       </c>
       <c r="E234" s="10"/>
     </row>
-    <row r="235" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C235" s="5" t="s">
         <v>286</v>
       </c>
@@ -15811,7 +15850,7 @@
       </c>
       <c r="E235" s="12"/>
     </row>
-    <row r="236" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B236" s="4" t="s">
         <v>287</v>
       </c>
@@ -15825,7 +15864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C237" s="5" t="s">
         <v>289</v>
       </c>
@@ -15834,7 +15873,7 @@
       </c>
       <c r="E237" s="10"/>
     </row>
-    <row r="238" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C238" s="5" t="s">
         <v>291</v>
       </c>
@@ -15843,7 +15882,7 @@
       </c>
       <c r="E238" s="10"/>
     </row>
-    <row r="239" spans="1:6" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>292</v>
       </c>
@@ -15855,7 +15894,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B240" s="4">
         <v>6.1</v>
       </c>
@@ -15864,7 +15903,7 @@
       </c>
       <c r="E240" s="11"/>
     </row>
-    <row r="241" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B241" s="4">
         <v>6.2</v>
       </c>
@@ -15873,7 +15912,7 @@
       </c>
       <c r="E241" s="11"/>
     </row>
-    <row r="242" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C242" s="5" t="s">
         <v>295</v>
       </c>
@@ -15882,7 +15921,7 @@
       </c>
       <c r="E242" s="10"/>
     </row>
-    <row r="243" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C243" s="5" t="s">
         <v>297</v>
       </c>
@@ -15891,7 +15930,7 @@
       </c>
       <c r="E243" s="10"/>
     </row>
-    <row r="244" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B244" s="4">
         <v>6.3</v>
       </c>
@@ -15900,7 +15939,7 @@
       </c>
       <c r="E244" s="11"/>
     </row>
-    <row r="245" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C245" s="5" t="s">
         <v>299</v>
       </c>
@@ -15909,7 +15948,7 @@
       </c>
       <c r="E245" s="12"/>
     </row>
-    <row r="246" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C246" s="5" t="s">
         <v>300</v>
       </c>
@@ -15918,7 +15957,7 @@
       </c>
       <c r="E246" s="10"/>
     </row>
-    <row r="247" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B247" s="4">
         <v>6.4</v>
       </c>
@@ -15930,7 +15969,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="248" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C248" s="5" t="s">
         <v>301</v>
       </c>
@@ -15939,7 +15978,7 @@
       </c>
       <c r="E248" s="12"/>
     </row>
-    <row r="249" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C249" s="5" t="s">
         <v>302</v>
       </c>
@@ -15948,7 +15987,7 @@
       </c>
       <c r="E249" s="12"/>
     </row>
-    <row r="250" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C250" s="5" t="s">
         <v>303</v>
       </c>
@@ -15957,7 +15996,7 @@
       </c>
       <c r="E250" s="12"/>
     </row>
-    <row r="251" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C251" s="5" t="s">
         <v>305</v>
       </c>
@@ -15966,7 +16005,7 @@
       </c>
       <c r="E251" s="12"/>
     </row>
-    <row r="252" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C252" s="5" t="s">
         <v>306</v>
       </c>
@@ -15975,7 +16014,7 @@
       </c>
       <c r="E252" s="12"/>
     </row>
-    <row r="253" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C253" s="5" t="s">
         <v>307</v>
       </c>
@@ -15984,7 +16023,7 @@
       </c>
       <c r="E253" s="12"/>
     </row>
-    <row r="254" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C254" s="5" t="s">
         <v>309</v>
       </c>
@@ -15993,7 +16032,7 @@
       </c>
       <c r="E254" s="12"/>
     </row>
-    <row r="255" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C255" s="5" t="s">
         <v>310</v>
       </c>
@@ -16002,7 +16041,7 @@
       </c>
       <c r="E255" s="12"/>
     </row>
-    <row r="256" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C256" s="5" t="s">
         <v>311</v>
       </c>
@@ -16011,7 +16050,7 @@
       </c>
       <c r="E256" s="12"/>
     </row>
-    <row r="257" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C257" s="5" t="s">
         <v>312</v>
       </c>
@@ -16020,7 +16059,7 @@
       </c>
       <c r="E257" s="12"/>
     </row>
-    <row r="258" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B258" s="4" t="s">
         <v>313</v>
       </c>
@@ -16029,7 +16068,7 @@
       </c>
       <c r="E258" s="19"/>
     </row>
-    <row r="259" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C259" s="5" t="s">
         <v>314</v>
       </c>
@@ -16041,7 +16080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C260" s="5" t="s">
         <v>315</v>
       </c>
@@ -16053,7 +16092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C261" s="5" t="s">
         <v>316</v>
       </c>
@@ -16065,7 +16104,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="262" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C262" s="5" t="s">
         <v>317</v>
       </c>
@@ -16077,7 +16116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C263" s="5" t="s">
         <v>318</v>
       </c>
@@ -16089,7 +16128,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="264" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C264" s="5" t="s">
         <v>319</v>
       </c>
@@ -16101,7 +16140,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="265" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C265" s="5" t="s">
         <v>320</v>
       </c>
@@ -16113,7 +16152,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="266" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C266" s="5" t="s">
         <v>322</v>
       </c>
@@ -16125,7 +16164,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="267" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C267" s="5" t="s">
         <v>323</v>
       </c>
@@ -16137,7 +16176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C268" s="5" t="s">
         <v>324</v>
       </c>
@@ -16149,7 +16188,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="269" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C269" s="5" t="s">
         <v>325</v>
       </c>
@@ -16161,7 +16200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C270" s="5" t="s">
         <v>326</v>
       </c>
@@ -16173,7 +16212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B271" s="4">
         <v>6.6</v>
       </c>
@@ -16185,7 +16224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B272" s="4">
         <v>6.7</v>
       </c>
@@ -16197,7 +16236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B273" s="4">
         <v>6.8</v>
       </c>
@@ -16209,7 +16248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B274" s="4">
         <v>6.9</v>
       </c>
@@ -16221,7 +16260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B275" s="4" t="s">
         <v>329</v>
       </c>
@@ -16233,7 +16272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B276" s="4" t="s">
         <v>330</v>
       </c>
@@ -16245,7 +16284,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="277" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C277" s="5" t="s">
         <v>331</v>
       </c>
@@ -16254,7 +16293,7 @@
       </c>
       <c r="E277" s="20"/>
     </row>
-    <row r="278" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C278" s="5" t="s">
         <v>333</v>
       </c>
@@ -16263,7 +16302,7 @@
       </c>
       <c r="E278" s="20"/>
     </row>
-    <row r="279" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C279" s="5" t="s">
         <v>334</v>
       </c>
@@ -16272,7 +16311,7 @@
       </c>
       <c r="E279" s="20"/>
     </row>
-    <row r="280" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C280" s="5" t="s">
         <v>336</v>
       </c>
@@ -16281,7 +16320,7 @@
       </c>
       <c r="E280" s="20"/>
     </row>
-    <row r="281" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C281" s="5" t="s">
         <v>338</v>
       </c>
@@ -16290,7 +16329,7 @@
       </c>
       <c r="E281" s="20"/>
     </row>
-    <row r="282" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C282" s="5" t="s">
         <v>340</v>
       </c>
@@ -16299,7 +16338,7 @@
       </c>
       <c r="E282" s="20"/>
     </row>
-    <row r="283" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C283" s="5" t="s">
         <v>342</v>
       </c>
@@ -16308,7 +16347,7 @@
       </c>
       <c r="E283" s="20"/>
     </row>
-    <row r="284" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C284" s="5" t="s">
         <v>343</v>
       </c>
@@ -16317,7 +16356,7 @@
       </c>
       <c r="E284" s="20"/>
     </row>
-    <row r="285" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C285" s="5" t="s">
         <v>344</v>
       </c>
@@ -16326,7 +16365,7 @@
       </c>
       <c r="E285" s="20"/>
     </row>
-    <row r="286" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B286" s="4" t="s">
         <v>346</v>
       </c>
@@ -16340,7 +16379,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="287" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C287" s="5" t="s">
         <v>348</v>
       </c>
@@ -16349,7 +16388,7 @@
       </c>
       <c r="E287" s="10"/>
     </row>
-    <row r="288" spans="2:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C288" s="5" t="s">
         <v>350</v>
       </c>
@@ -16358,7 +16397,7 @@
       </c>
       <c r="E288" s="10"/>
     </row>
-    <row r="289" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C289" s="5" t="s">
         <v>352</v>
       </c>
@@ -16367,7 +16406,7 @@
       </c>
       <c r="E289" s="10"/>
     </row>
-    <row r="290" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C290" s="5" t="s">
         <v>354</v>
       </c>
@@ -16376,7 +16415,7 @@
       </c>
       <c r="E290" s="10"/>
     </row>
-    <row r="291" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C291" s="5" t="s">
         <v>356</v>
       </c>
@@ -16385,7 +16424,7 @@
       </c>
       <c r="E291" s="10"/>
     </row>
-    <row r="292" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C292" s="5" t="s">
         <v>358</v>
       </c>
@@ -16394,7 +16433,7 @@
       </c>
       <c r="E292" s="10"/>
     </row>
-    <row r="293" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B293" s="4" t="s">
         <v>360</v>
       </c>
@@ -16408,7 +16447,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C294" s="5" t="s">
         <v>362</v>
       </c>
@@ -16417,7 +16456,7 @@
       </c>
       <c r="E294" s="20"/>
     </row>
-    <row r="295" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C295" s="5" t="s">
         <v>363</v>
       </c>
@@ -16426,7 +16465,7 @@
       </c>
       <c r="E295" s="20"/>
     </row>
-    <row r="296" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C296" s="5" t="s">
         <v>364</v>
       </c>
@@ -16435,7 +16474,7 @@
       </c>
       <c r="E296" s="20"/>
     </row>
-    <row r="297" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C297" s="5" t="s">
         <v>365</v>
       </c>
@@ -16444,7 +16483,7 @@
       </c>
       <c r="E297" s="20"/>
     </row>
-    <row r="298" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C298" s="5" t="s">
         <v>366</v>
       </c>
@@ -16453,7 +16492,7 @@
       </c>
       <c r="E298" s="20"/>
     </row>
-    <row r="299" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C299" s="5" t="s">
         <v>367</v>
       </c>
@@ -16462,7 +16501,7 @@
       </c>
       <c r="E299" s="20"/>
     </row>
-    <row r="300" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C300" s="5" t="s">
         <v>368</v>
       </c>
@@ -16471,7 +16510,7 @@
       </c>
       <c r="E300" s="20"/>
     </row>
-    <row r="301" spans="1:6" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
         <v>369</v>
       </c>
@@ -16486,7 +16525,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B302" s="4" t="s">
         <v>370</v>
       </c>
@@ -16495,7 +16534,7 @@
       </c>
       <c r="E302" s="19"/>
     </row>
-    <row r="303" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C303" s="5" t="s">
         <v>372</v>
       </c>
@@ -16504,7 +16543,7 @@
       </c>
       <c r="E303" s="20"/>
     </row>
-    <row r="304" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B304" s="4" t="s">
         <v>374</v>
       </c>
@@ -16513,7 +16552,7 @@
       </c>
       <c r="E304" s="19"/>
     </row>
-    <row r="305" spans="2:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B305" s="4" t="s">
         <v>376</v>
       </c>
@@ -16522,7 +16561,7 @@
       </c>
       <c r="E305" s="19"/>
     </row>
-    <row r="306" spans="2:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C306" s="5" t="s">
         <v>378</v>
       </c>
@@ -16531,7 +16570,7 @@
       </c>
       <c r="E306" s="20"/>
     </row>
-    <row r="307" spans="2:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C307" s="5" t="s">
         <v>379</v>
       </c>
@@ -16540,7 +16579,7 @@
       </c>
       <c r="E307" s="20"/>
     </row>
-    <row r="308" spans="2:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C308" s="5" t="s">
         <v>381</v>
       </c>
@@ -16549,7 +16588,7 @@
       </c>
       <c r="E308" s="20"/>
     </row>
-    <row r="309" spans="2:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C309" s="5" t="s">
         <v>383</v>
       </c>
@@ -16558,7 +16597,7 @@
       </c>
       <c r="E309" s="20"/>
     </row>
-    <row r="310" spans="2:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B310" s="4">
         <v>7.4</v>
       </c>
@@ -16567,7 +16606,7 @@
       </c>
       <c r="E310" s="19"/>
     </row>
-    <row r="311" spans="2:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C311" s="5" t="s">
         <v>385</v>
       </c>
@@ -16576,7 +16615,7 @@
       </c>
       <c r="E311" s="20"/>
     </row>
-    <row r="312" spans="2:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C312" s="5" t="s">
         <v>386</v>
       </c>
@@ -16585,7 +16624,7 @@
       </c>
       <c r="E312" s="20"/>
     </row>
-    <row r="313" spans="2:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C313" s="5" t="s">
         <v>387</v>
       </c>
@@ -16594,7 +16633,7 @@
       </c>
       <c r="E313" s="20"/>
     </row>
-    <row r="314" spans="2:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C314" s="5" t="s">
         <v>388</v>
       </c>
@@ -16603,7 +16642,7 @@
       </c>
       <c r="E314" s="20"/>
     </row>
-    <row r="315" spans="2:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B315" s="4" t="s">
         <v>389</v>
       </c>
@@ -16612,7 +16651,7 @@
       </c>
       <c r="E315" s="19"/>
     </row>
-    <row r="316" spans="2:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C316" s="5" t="s">
         <v>391</v>
       </c>
@@ -16621,7 +16660,7 @@
       </c>
       <c r="E316" s="20"/>
     </row>
-    <row r="317" spans="2:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B317" s="4" t="s">
         <v>392</v>
       </c>
@@ -16630,7 +16669,7 @@
       </c>
       <c r="E317" s="19"/>
     </row>
-    <row r="318" spans="2:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C318" s="5" t="s">
         <v>394</v>
       </c>
@@ -16639,7 +16678,7 @@
       </c>
       <c r="E318" s="20"/>
     </row>
-    <row r="319" spans="2:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C319" s="5" t="s">
         <v>395</v>
       </c>
@@ -16648,7 +16687,7 @@
       </c>
       <c r="E319" s="20"/>
     </row>
-    <row r="320" spans="2:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C320" s="5" t="s">
         <v>396</v>
       </c>
@@ -16657,7 +16696,7 @@
       </c>
       <c r="E320" s="20"/>
     </row>
-    <row r="321" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>8</v>
       </c>
@@ -16671,7 +16710,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B322" s="22" t="s">
         <v>703</v>
       </c>
@@ -16680,7 +16719,7 @@
       </c>
       <c r="E322" s="4"/>
     </row>
-    <row r="323" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B323" s="22" t="s">
         <v>704</v>
       </c>
@@ -16689,7 +16728,7 @@
       </c>
       <c r="E323" s="4"/>
     </row>
-    <row r="324" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B324" s="22" t="s">
         <v>705</v>
       </c>
@@ -16698,7 +16737,7 @@
       </c>
       <c r="E324" s="4"/>
     </row>
-    <row r="325" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C325" s="23" t="s">
         <v>706</v>
       </c>
@@ -16707,7 +16746,7 @@
       </c>
       <c r="E325" s="5"/>
     </row>
-    <row r="326" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C326" s="23" t="s">
         <v>707</v>
       </c>
@@ -16716,7 +16755,7 @@
       </c>
       <c r="E326" s="5"/>
     </row>
-    <row r="327" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B327" s="22" t="s">
         <v>708</v>
       </c>
@@ -16725,7 +16764,7 @@
       </c>
       <c r="E327" s="4"/>
     </row>
-    <row r="328" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B328" s="22" t="s">
         <v>709</v>
       </c>
@@ -16734,7 +16773,7 @@
       </c>
       <c r="E328" s="4"/>
     </row>
-    <row r="329" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B329" s="22" t="s">
         <v>710</v>
       </c>
@@ -16743,7 +16782,7 @@
       </c>
       <c r="E329" s="4"/>
     </row>
-    <row r="330" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C330" s="23" t="s">
         <v>711</v>
       </c>
@@ -16752,7 +16791,7 @@
       </c>
       <c r="E330" s="5"/>
     </row>
-    <row r="331" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C331" s="23" t="s">
         <v>712</v>
       </c>
@@ -16761,7 +16800,7 @@
       </c>
       <c r="E331" s="5"/>
     </row>
-    <row r="332" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C332" s="23" t="s">
         <v>713</v>
       </c>
@@ -16770,7 +16809,7 @@
       </c>
       <c r="E332" s="5"/>
     </row>
-    <row r="333" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C333" s="23" t="s">
         <v>714</v>
       </c>
@@ -16779,7 +16818,7 @@
       </c>
       <c r="E333" s="5"/>
     </row>
-    <row r="334" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B334" s="22">
         <v>8.6999999999999993</v>
       </c>
@@ -16788,7 +16827,7 @@
       </c>
       <c r="E334" s="4"/>
     </row>
-    <row r="335" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B335" s="22">
         <v>8.8000000000000007</v>
       </c>
@@ -16797,7 +16836,7 @@
       </c>
       <c r="E335" s="4"/>
     </row>
-    <row r="336" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B336" s="22">
         <v>8.9</v>
       </c>
@@ -16806,7 +16845,7 @@
       </c>
       <c r="E336" s="4"/>
     </row>
-    <row r="337" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B337" s="22" t="s">
         <v>715</v>
       </c>
@@ -16815,7 +16854,7 @@
       </c>
       <c r="E337" s="4"/>
     </row>
-    <row r="338" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B338" s="22" t="s">
         <v>716</v>
       </c>
@@ -16824,7 +16863,7 @@
       </c>
       <c r="E338" s="4"/>
     </row>
-    <row r="339" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C339" s="23" t="s">
         <v>717</v>
       </c>
@@ -16833,7 +16872,7 @@
       </c>
       <c r="E339" s="5"/>
     </row>
-    <row r="340" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C340" s="23" t="s">
         <v>718</v>
       </c>
@@ -16842,7 +16881,7 @@
       </c>
       <c r="E340" s="5"/>
     </row>
-    <row r="341" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C341" s="23" t="s">
         <v>719</v>
       </c>
@@ -16851,7 +16890,7 @@
       </c>
       <c r="E341" s="5"/>
     </row>
-    <row r="342" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B342" s="22" t="s">
         <v>720</v>
       </c>
@@ -16860,7 +16899,7 @@
       </c>
       <c r="E342" s="4"/>
     </row>
-    <row r="343" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B343" s="22" t="s">
         <v>721</v>
       </c>
@@ -16869,7 +16908,7 @@
       </c>
       <c r="E343" s="4"/>
     </row>
-    <row r="344" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B344" s="22" t="s">
         <v>722</v>
       </c>
@@ -16878,7 +16917,7 @@
       </c>
       <c r="E344" s="4"/>
     </row>
-    <row r="345" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B345" s="22" t="s">
         <v>723</v>
       </c>
@@ -16887,7 +16926,7 @@
       </c>
       <c r="E345" s="4"/>
     </row>
-    <row r="346" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B346" s="22" t="s">
         <v>724</v>
       </c>
@@ -16896,7 +16935,7 @@
       </c>
       <c r="E346" s="4"/>
     </row>
-    <row r="347" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B347" s="22"/>
       <c r="C347" s="23" t="s">
         <v>725</v>
@@ -16906,7 +16945,7 @@
       </c>
       <c r="E347" s="5"/>
     </row>
-    <row r="348" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C348" s="23" t="s">
         <v>726</v>
       </c>
@@ -16915,7 +16954,7 @@
       </c>
       <c r="E348" s="5"/>
     </row>
-    <row r="349" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>9</v>
       </c>
@@ -16928,7 +16967,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="350" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B350" s="22">
         <v>9.1</v>
       </c>
@@ -16937,7 +16976,7 @@
       </c>
       <c r="E350" s="4"/>
     </row>
-    <row r="351" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B351" s="22">
         <v>9.1999999999999993</v>
       </c>
@@ -16946,7 +16985,7 @@
       </c>
       <c r="E351" s="4"/>
     </row>
-    <row r="352" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C352" s="23" t="s">
         <v>727</v>
       </c>
@@ -16955,7 +16994,7 @@
       </c>
       <c r="E352" s="5"/>
     </row>
-    <row r="353" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C353" s="23" t="s">
         <v>633</v>
       </c>
@@ -16964,7 +17003,7 @@
       </c>
       <c r="E353" s="5"/>
     </row>
-    <row r="354" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C354" s="23" t="s">
         <v>634</v>
       </c>
@@ -16973,7 +17012,7 @@
       </c>
       <c r="E354" s="5"/>
     </row>
-    <row r="355" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C355" s="23" t="s">
         <v>635</v>
       </c>
@@ -16982,7 +17021,7 @@
       </c>
       <c r="E355" s="5"/>
     </row>
-    <row r="356" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>10</v>
       </c>
@@ -16995,7 +17034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="357" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B357" s="22" t="s">
         <v>728</v>
       </c>
@@ -17004,7 +17043,7 @@
       </c>
       <c r="E357" s="4"/>
     </row>
-    <row r="358" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B358" s="22" t="s">
         <v>729</v>
       </c>
@@ -17013,7 +17052,7 @@
       </c>
       <c r="E358" s="4"/>
     </row>
-    <row r="359" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C359" s="23" t="s">
         <v>730</v>
       </c>
@@ -17022,7 +17061,7 @@
       </c>
       <c r="E359" s="5"/>
     </row>
-    <row r="360" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C360" s="23" t="s">
         <v>731</v>
       </c>
@@ -17031,7 +17070,7 @@
       </c>
       <c r="E360" s="5"/>
     </row>
-    <row r="361" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B361" s="22" t="s">
         <v>732</v>
       </c>
@@ -17040,7 +17079,7 @@
       </c>
       <c r="E361" s="4"/>
     </row>
-    <row r="362" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B362" s="22" t="s">
         <v>733</v>
       </c>
@@ -17049,7 +17088,7 @@
       </c>
       <c r="E362" s="4"/>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>11</v>
       </c>
@@ -17062,7 +17101,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="364" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B364" s="22" t="s">
         <v>734</v>
       </c>
@@ -17071,7 +17110,7 @@
       </c>
       <c r="E364" s="4"/>
     </row>
-    <row r="365" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C365" s="23" t="s">
         <v>735</v>
       </c>
@@ -17080,7 +17119,7 @@
       </c>
       <c r="E365" s="5"/>
     </row>
-    <row r="366" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C366" s="23" t="s">
         <v>736</v>
       </c>
@@ -17089,7 +17128,7 @@
       </c>
       <c r="E366" s="5"/>
     </row>
-    <row r="367" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C367" s="23" t="s">
         <v>737</v>
       </c>
@@ -17098,7 +17137,7 @@
       </c>
       <c r="E367" s="5"/>
     </row>
-    <row r="368" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C368" s="23" t="s">
         <v>738</v>
       </c>
@@ -17107,7 +17146,7 @@
       </c>
       <c r="E368" s="5"/>
     </row>
-    <row r="369" spans="2:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="369" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C369" s="23" t="s">
         <v>739</v>
       </c>
@@ -17116,7 +17155,7 @@
       </c>
       <c r="E369" s="5"/>
     </row>
-    <row r="370" spans="2:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C370" s="23" t="s">
         <v>740</v>
       </c>
@@ -17125,7 +17164,7 @@
       </c>
       <c r="E370" s="5"/>
     </row>
-    <row r="371" spans="2:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C371" s="23" t="s">
         <v>741</v>
       </c>
@@ -17134,7 +17173,7 @@
       </c>
       <c r="E371" s="5"/>
     </row>
-    <row r="372" spans="2:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="372" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B372" s="22" t="s">
         <v>742</v>
       </c>
@@ -17143,7 +17182,7 @@
       </c>
       <c r="E372" s="4"/>
     </row>
-    <row r="373" spans="2:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="373" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C373" s="23" t="s">
         <v>743</v>
       </c>
@@ -17152,7 +17191,7 @@
       </c>
       <c r="E373" s="5"/>
     </row>
-    <row r="374" spans="2:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="374" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C374" s="23" t="s">
         <v>744</v>
       </c>
@@ -17161,7 +17200,7 @@
       </c>
       <c r="E374" s="5"/>
     </row>
-    <row r="375" spans="2:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="375" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C375" s="23" t="s">
         <v>745</v>
       </c>
@@ -17170,7 +17209,7 @@
       </c>
       <c r="E375" s="5"/>
     </row>
-    <row r="376" spans="2:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="376" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C376" s="23" t="s">
         <v>746</v>
       </c>
@@ -17179,7 +17218,7 @@
       </c>
       <c r="E376" s="5"/>
     </row>
-    <row r="377" spans="2:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C377" s="23" t="s">
         <v>747</v>
       </c>
@@ -17188,7 +17227,7 @@
       </c>
       <c r="E377" s="5"/>
     </row>
-    <row r="378" spans="2:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="378" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C378" s="23" t="s">
         <v>748</v>
       </c>
@@ -17197,7 +17236,7 @@
       </c>
       <c r="E378" s="5"/>
     </row>
-    <row r="379" spans="2:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="379" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C379" s="23" t="s">
         <v>749</v>
       </c>
@@ -17206,7 +17245,7 @@
       </c>
       <c r="E379" s="5"/>
     </row>
-    <row r="380" spans="2:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="380" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C380" s="23" t="s">
         <v>750</v>
       </c>
@@ -17215,7 +17254,7 @@
       </c>
       <c r="E380" s="5"/>
     </row>
-    <row r="381" spans="2:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C381" s="23" t="s">
         <v>751</v>
       </c>
@@ -17224,7 +17263,7 @@
       </c>
       <c r="E381" s="5"/>
     </row>
-    <row r="382" spans="2:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B382" s="22" t="s">
         <v>752</v>
       </c>
@@ -17233,7 +17272,7 @@
       </c>
       <c r="E382" s="4"/>
     </row>
-    <row r="383" spans="2:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="383" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C383" s="23" t="s">
         <v>753</v>
       </c>
@@ -17242,7 +17281,7 @@
       </c>
       <c r="E383" s="5"/>
     </row>
-    <row r="384" spans="2:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="384" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C384" s="23" t="s">
         <v>754</v>
       </c>
@@ -17251,7 +17290,7 @@
       </c>
       <c r="E384" s="5"/>
     </row>
-    <row r="385" spans="2:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="385" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C385" s="23" t="s">
         <v>755</v>
       </c>
@@ -17260,7 +17299,7 @@
       </c>
       <c r="E385" s="5"/>
     </row>
-    <row r="386" spans="2:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B386" s="22" t="s">
         <v>756</v>
       </c>
@@ -17269,7 +17308,7 @@
       </c>
       <c r="E386" s="4"/>
     </row>
-    <row r="387" spans="2:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="387" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B387" s="22" t="s">
         <v>757</v>
       </c>
@@ -17278,7 +17317,7 @@
       </c>
       <c r="E387" s="4"/>
     </row>
-    <row r="388" spans="2:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="388" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B388" s="22" t="s">
         <v>758</v>
       </c>
@@ -17287,7 +17326,7 @@
       </c>
       <c r="E388" s="4"/>
     </row>
-    <row r="389" spans="2:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="389" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C389" s="23" t="s">
         <v>833</v>
       </c>
@@ -17296,7 +17335,7 @@
       </c>
       <c r="E389" s="5"/>
     </row>
-    <row r="390" spans="2:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="390" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C390" s="23" t="s">
         <v>648</v>
       </c>
@@ -17305,7 +17344,7 @@
       </c>
       <c r="E390" s="5"/>
     </row>
-    <row r="391" spans="2:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="391" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C391" s="23" t="s">
         <v>649</v>
       </c>
@@ -17316,7 +17355,7 @@
       <c r="F391" s="23"/>
       <c r="G391" s="23"/>
     </row>
-    <row r="392" spans="2:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="392" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C392" s="23" t="s">
         <v>650</v>
       </c>
@@ -17325,7 +17364,7 @@
       </c>
       <c r="E392" s="5"/>
     </row>
-    <row r="393" spans="2:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="393" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B393" s="25" t="s">
         <v>651</v>
       </c>
@@ -17334,7 +17373,7 @@
       </c>
       <c r="E393" s="4"/>
     </row>
-    <row r="394" spans="2:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="394" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B394" s="25"/>
       <c r="C394" s="23" t="s">
         <v>838</v>
@@ -17344,7 +17383,7 @@
       </c>
       <c r="E394" s="5"/>
     </row>
-    <row r="395" spans="2:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="395" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C395" s="23" t="s">
         <v>652</v>
       </c>
@@ -17353,7 +17392,7 @@
       </c>
       <c r="E395" s="5"/>
     </row>
-    <row r="396" spans="2:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="396" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C396" s="23" t="s">
         <v>653</v>
       </c>
@@ -17362,7 +17401,7 @@
       </c>
       <c r="E396" s="5"/>
     </row>
-    <row r="397" spans="2:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="397" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C397" s="23" t="s">
         <v>654</v>
       </c>
@@ -17371,7 +17410,7 @@
       </c>
       <c r="E397" s="5"/>
     </row>
-    <row r="398" spans="2:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="398" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C398" s="23" t="s">
         <v>655</v>
       </c>
@@ -17380,7 +17419,7 @@
       </c>
       <c r="E398" s="5"/>
     </row>
-    <row r="399" spans="2:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="399" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C399" s="23" t="s">
         <v>656</v>
       </c>
@@ -17389,7 +17428,7 @@
       </c>
       <c r="E399" s="5"/>
     </row>
-    <row r="400" spans="2:7" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="400" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C400" s="23" t="s">
         <v>657</v>
       </c>
@@ -17398,7 +17437,7 @@
       </c>
       <c r="E400" s="5"/>
     </row>
-    <row r="401" spans="2:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="401" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C401" s="23" t="s">
         <v>658</v>
       </c>
@@ -17407,7 +17446,7 @@
       </c>
       <c r="E401" s="5"/>
     </row>
-    <row r="402" spans="2:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="402" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C402" s="23" t="s">
         <v>659</v>
       </c>
@@ -17416,7 +17455,7 @@
       </c>
       <c r="E402" s="5"/>
     </row>
-    <row r="403" spans="2:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="403" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C403" s="23" t="s">
         <v>660</v>
       </c>
@@ -17425,7 +17464,7 @@
       </c>
       <c r="E403" s="5"/>
     </row>
-    <row r="404" spans="2:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="404" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B404" s="24" t="s">
         <v>661</v>
       </c>
@@ -17434,7 +17473,7 @@
       </c>
       <c r="E404" s="4"/>
     </row>
-    <row r="405" spans="2:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="405" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B405" s="2"/>
       <c r="C405" s="23" t="s">
         <v>663</v>
@@ -17444,7 +17483,7 @@
       </c>
       <c r="E405" s="5"/>
     </row>
-    <row r="406" spans="2:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="406" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B406" s="2"/>
       <c r="C406" s="23" t="s">
         <v>664</v>
@@ -17454,7 +17493,7 @@
       </c>
       <c r="E406" s="5"/>
     </row>
-    <row r="407" spans="2:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="407" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B407" s="2"/>
       <c r="C407" s="23" t="s">
         <v>665</v>
@@ -17464,7 +17503,7 @@
       </c>
       <c r="E407" s="5"/>
     </row>
-    <row r="408" spans="2:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="408" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B408" s="2"/>
       <c r="C408" s="23" t="s">
         <v>666</v>
@@ -17474,7 +17513,7 @@
       </c>
       <c r="E408" s="5"/>
     </row>
-    <row r="409" spans="2:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="409" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B409" s="2"/>
       <c r="C409" s="23" t="s">
         <v>667</v>
@@ -17484,7 +17523,7 @@
       </c>
       <c r="E409" s="5"/>
     </row>
-    <row r="410" spans="2:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="410" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B410" s="24" t="s">
         <v>668</v>
       </c>
@@ -17493,7 +17532,7 @@
       </c>
       <c r="E410" s="4"/>
     </row>
-    <row r="411" spans="2:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="411" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B411" s="2"/>
       <c r="C411" s="23" t="s">
         <v>670</v>
@@ -17503,7 +17542,7 @@
       </c>
       <c r="E411" s="5"/>
     </row>
-    <row r="412" spans="2:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="412" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B412" s="2"/>
       <c r="C412" s="23" t="s">
         <v>671</v>
@@ -17513,7 +17552,7 @@
       </c>
       <c r="E412" s="5"/>
     </row>
-    <row r="413" spans="2:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="413" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B413" s="24" t="s">
         <v>672</v>
       </c>
@@ -17522,7 +17561,7 @@
       </c>
       <c r="E413" s="4"/>
     </row>
-    <row r="414" spans="2:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="414" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B414" s="2"/>
       <c r="C414" s="26" t="s">
         <v>674</v>
@@ -17532,7 +17571,7 @@
       </c>
       <c r="E414" s="5"/>
     </row>
-    <row r="415" spans="2:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="415" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B415" s="2"/>
       <c r="C415" s="26" t="s">
         <v>675</v>
@@ -17542,7 +17581,7 @@
       </c>
       <c r="E415" s="5"/>
     </row>
-    <row r="416" spans="2:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="416" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B416" s="2"/>
       <c r="C416" s="26" t="s">
         <v>676</v>
@@ -17552,7 +17591,7 @@
       </c>
       <c r="E416" s="5"/>
     </row>
-    <row r="417" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B417" s="2"/>
       <c r="C417" s="26" t="s">
         <v>677</v>
@@ -17562,7 +17601,7 @@
       </c>
       <c r="E417" s="5"/>
     </row>
-    <row r="418" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B418" s="2"/>
       <c r="C418" s="26" t="s">
         <v>678</v>
@@ -17572,7 +17611,7 @@
       </c>
       <c r="E418" s="5"/>
     </row>
-    <row r="419" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B419" s="24" t="s">
         <v>679</v>
       </c>
@@ -17581,7 +17620,7 @@
       </c>
       <c r="E419" s="4"/>
     </row>
-    <row r="420" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B420" s="2"/>
       <c r="C420" s="26" t="s">
         <v>681</v>
@@ -17591,7 +17630,7 @@
       </c>
       <c r="E420" s="5"/>
     </row>
-    <row r="421" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B421" s="2"/>
       <c r="C421" s="26" t="s">
         <v>682</v>
@@ -17601,13 +17640,13 @@
       </c>
       <c r="E421" s="5"/>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B422" s="2"/>
       <c r="C422" s="26"/>
       <c r="D422" s="29"/>
       <c r="E422" s="29"/>
     </row>
-    <row r="423" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B423" s="2"/>
       <c r="C423" s="26" t="s">
         <v>683</v>
@@ -17617,7 +17656,7 @@
       </c>
       <c r="E423" s="5"/>
     </row>
-    <row r="424" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B424" s="2"/>
       <c r="C424" s="26" t="s">
         <v>684</v>
@@ -17627,7 +17666,7 @@
       </c>
       <c r="E424" s="5"/>
     </row>
-    <row r="425" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B425" s="2"/>
       <c r="C425" s="26" t="s">
         <v>685</v>
@@ -17637,7 +17676,7 @@
       </c>
       <c r="E425" s="5"/>
     </row>
-    <row r="426" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B426" s="2"/>
       <c r="C426" s="26" t="s">
         <v>686</v>
@@ -17647,7 +17686,7 @@
       </c>
       <c r="E426" s="5"/>
     </row>
-    <row r="427" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B427" s="24" t="s">
         <v>687</v>
       </c>
@@ -17656,7 +17695,7 @@
       </c>
       <c r="E427" s="4"/>
     </row>
-    <row r="428" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B428" s="2"/>
       <c r="C428" s="26" t="s">
         <v>689</v>
@@ -17666,7 +17705,7 @@
       </c>
       <c r="E428" s="5"/>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>12</v>
       </c>
@@ -17679,7 +17718,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="430" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B430" s="24" t="s">
         <v>691</v>
       </c>
@@ -17688,7 +17727,7 @@
       </c>
       <c r="E430" s="4"/>
     </row>
-    <row r="431" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C431" s="23" t="s">
         <v>693</v>
       </c>
@@ -17697,7 +17736,7 @@
       </c>
       <c r="E431" s="5"/>
     </row>
-    <row r="432" spans="1:6" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C432" s="23" t="s">
         <v>694</v>
       </c>
@@ -17706,7 +17745,7 @@
       </c>
       <c r="E432" s="5"/>
     </row>
-    <row r="433" spans="2:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="433" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C433" s="23" t="s">
         <v>695</v>
       </c>
@@ -17715,7 +17754,7 @@
       </c>
       <c r="E433" s="5"/>
     </row>
-    <row r="434" spans="2:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="434" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B434" s="24" t="s">
         <v>696</v>
       </c>
@@ -17724,7 +17763,7 @@
       </c>
       <c r="E434" s="4"/>
     </row>
-    <row r="435" spans="2:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="435" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C435" s="23" t="s">
         <v>697</v>
       </c>
@@ -17733,7 +17772,7 @@
       </c>
       <c r="E435" s="5"/>
     </row>
-    <row r="436" spans="2:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="436" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C436" s="23" t="s">
         <v>698</v>
       </c>
@@ -17742,7 +17781,7 @@
       </c>
       <c r="E436" s="5"/>
     </row>
-    <row r="437" spans="2:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="437" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C437" s="23" t="s">
         <v>699</v>
       </c>
@@ -17751,7 +17790,7 @@
       </c>
       <c r="E437" s="5"/>
     </row>
-    <row r="438" spans="2:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="438" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B438" s="24" t="s">
         <v>700</v>
       </c>
@@ -17762,6 +17801,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H421" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <mergeCells count="3">
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="G65:G69"/>
+    <mergeCell ref="G71:G75"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -17776,15 +17820,15 @@
       <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.1328125" customWidth="1"/>
-    <col min="2" max="2" width="30.46484375" style="29" customWidth="1"/>
-    <col min="3" max="3" width="41.265625" customWidth="1"/>
-    <col min="4" max="4" width="33.59765625" customWidth="1"/>
+    <col min="1" max="1" width="47.109375" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="41.21875" customWidth="1"/>
+    <col min="4" max="4" width="33.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>702</v>
       </c>
@@ -17801,145 +17845,145 @@
         <v>867</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="30"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>590</v>
       </c>
       <c r="B3" s="30"/>
     </row>
-    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="30"/>
     </row>
-    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>425</v>
       </c>
       <c r="B5" s="30"/>
     </row>
-    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>426</v>
       </c>
       <c r="B6" s="30"/>
     </row>
-    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>421</v>
       </c>
       <c r="B7" s="30"/>
     </row>
-    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B8" s="30"/>
     </row>
-    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="30"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>427</v>
       </c>
       <c r="B10" s="30"/>
     </row>
-    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>428</v>
       </c>
       <c r="B11" s="30"/>
     </row>
-    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>429</v>
       </c>
       <c r="B12" s="30"/>
     </row>
-    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>422</v>
       </c>
       <c r="B13" s="30"/>
     </row>
-    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>430</v>
       </c>
       <c r="B14" s="30"/>
     </row>
-    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B15" s="30"/>
     </row>
-    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>612</v>
       </c>
       <c r="B16" s="30"/>
     </row>
-    <row r="17" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>613</v>
       </c>
       <c r="B17" s="30"/>
     </row>
-    <row r="18" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B18" s="30"/>
     </row>
-    <row r="19" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>431</v>
       </c>
       <c r="B19" s="30"/>
     </row>
-    <row r="20" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B20" s="30"/>
     </row>
-    <row r="21" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
         <v>843</v>
       </c>
       <c r="B21" s="30"/>
     </row>
-    <row r="22" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
         <v>842</v>
       </c>
       <c r="B22" s="30"/>
     </row>
-    <row r="23" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
         <v>860</v>
       </c>
       <c r="B23" s="30"/>
     </row>
-    <row r="24" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
         <v>61</v>
       </c>
       <c r="B24" s="30"/>
     </row>
-    <row r="25" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
         <v>861</v>
       </c>
@@ -17947,13 +17991,13 @@
         <v>845</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="31" t="s">
         <v>840</v>
       </c>
       <c r="B26" s="30"/>
     </row>
-    <row r="27" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
         <v>841</v>
       </c>
@@ -17961,7 +18005,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
         <v>862</v>
       </c>
@@ -17969,25 +18013,25 @@
         <v>845</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="31" t="s">
         <v>847</v>
       </c>
       <c r="B29" s="30"/>
     </row>
-    <row r="30" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="31" t="s">
         <v>848</v>
       </c>
       <c r="B30" s="30"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="34" t="s">
         <v>436</v>
       </c>
       <c r="B31" s="30"/>
     </row>
-    <row r="32" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
         <v>849</v>
       </c>
@@ -17995,7 +18039,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="32" t="s">
         <v>851</v>
       </c>
@@ -18003,7 +18047,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="32" t="s">
         <v>852</v>
       </c>
@@ -18011,7 +18055,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="32" t="s">
         <v>853</v>
       </c>
@@ -18019,630 +18063,630 @@
         <v>850</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="31" t="s">
         <v>857</v>
       </c>
       <c r="B36" s="30"/>
     </row>
-    <row r="37" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="31" t="s">
         <v>858</v>
       </c>
       <c r="B37" s="30"/>
     </row>
-    <row r="38" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>602</v>
       </c>
       <c r="B38" s="30"/>
     </row>
-    <row r="39" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="31" t="s">
         <v>855</v>
       </c>
       <c r="B39" s="30"/>
     </row>
-    <row r="40" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="31" t="s">
         <v>856</v>
       </c>
       <c r="B40" s="30"/>
     </row>
-    <row r="41" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="32" t="s">
         <v>859</v>
       </c>
       <c r="B41" s="30"/>
     </row>
-    <row r="42" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="31" t="s">
         <v>79</v>
       </c>
       <c r="B42" s="30"/>
     </row>
-    <row r="43" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>81</v>
       </c>
       <c r="B43" s="30"/>
     </row>
-    <row r="44" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>438</v>
       </c>
       <c r="B44" s="30"/>
     </row>
-    <row r="45" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="31" t="s">
         <v>863</v>
       </c>
       <c r="B45" s="30"/>
     </row>
-    <row r="46" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>440</v>
       </c>
       <c r="B46" s="30"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="35" t="s">
         <v>86</v>
       </c>
       <c r="B47" s="30"/>
     </row>
-    <row r="48" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
         <v>844</v>
       </c>
       <c r="B48" s="30"/>
     </row>
-    <row r="49" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="31" t="s">
         <v>854</v>
       </c>
       <c r="B49" s="30"/>
     </row>
-    <row r="50" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>605</v>
       </c>
       <c r="B50" s="30"/>
     </row>
-    <row r="51" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>607</v>
       </c>
       <c r="B51" s="30"/>
     </row>
-    <row r="52" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>606</v>
       </c>
       <c r="B52" s="30"/>
     </row>
-    <row r="53" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>443</v>
       </c>
       <c r="B53" s="30"/>
     </row>
-    <row r="54" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>444</v>
       </c>
       <c r="B54" s="30"/>
     </row>
-    <row r="55" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>445</v>
       </c>
       <c r="B55" s="30"/>
     </row>
-    <row r="56" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>92</v>
       </c>
       <c r="B56" s="30"/>
     </row>
-    <row r="57" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>446</v>
       </c>
       <c r="B58" s="30"/>
     </row>
-    <row r="59" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B59" s="30"/>
     </row>
-    <row r="60" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>447</v>
       </c>
       <c r="B60" s="30"/>
     </row>
-    <row r="61" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>99</v>
       </c>
       <c r="B61" s="30"/>
     </row>
-    <row r="62" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>101</v>
       </c>
       <c r="B62" s="30"/>
     </row>
-    <row r="63" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>103</v>
       </c>
       <c r="B63" s="30"/>
     </row>
-    <row r="64" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>448</v>
       </c>
       <c r="B64" s="30"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>449</v>
       </c>
       <c r="B65" s="30"/>
     </row>
-    <row r="66" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>407</v>
       </c>
       <c r="B66" s="30"/>
     </row>
-    <row r="67" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>108</v>
       </c>
       <c r="B67" s="30"/>
     </row>
-    <row r="68" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>450</v>
       </c>
       <c r="B68" s="30"/>
     </row>
-    <row r="69" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>451</v>
       </c>
       <c r="B69" s="30"/>
     </row>
-    <row r="70" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>452</v>
       </c>
       <c r="B70" s="30"/>
     </row>
-    <row r="71" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>113</v>
       </c>
       <c r="B71" s="30"/>
     </row>
-    <row r="72" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>115</v>
       </c>
       <c r="B72" s="30"/>
     </row>
-    <row r="73" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>117</v>
       </c>
       <c r="B73" s="30"/>
     </row>
-    <row r="74" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>453</v>
       </c>
       <c r="B74" s="30"/>
     </row>
-    <row r="75" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B75" s="30"/>
     </row>
-    <row r="76" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>122</v>
       </c>
       <c r="B76" s="30"/>
     </row>
-    <row r="77" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>124</v>
       </c>
       <c r="B77" s="30"/>
     </row>
-    <row r="78" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>454</v>
       </c>
       <c r="B78" s="30"/>
     </row>
-    <row r="79" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>455</v>
       </c>
       <c r="B79" s="30"/>
     </row>
-    <row r="80" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>128</v>
       </c>
       <c r="B80" s="30"/>
     </row>
-    <row r="81" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>456</v>
       </c>
       <c r="B81" s="30"/>
     </row>
-    <row r="82" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>131</v>
       </c>
       <c r="B82" s="30"/>
     </row>
-    <row r="83" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>457</v>
       </c>
       <c r="B83" s="30"/>
     </row>
-    <row r="84" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>423</v>
       </c>
       <c r="B84" s="30"/>
     </row>
-    <row r="85" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>458</v>
       </c>
       <c r="B85" s="30"/>
     </row>
-    <row r="86" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>136</v>
       </c>
       <c r="B86" s="30"/>
     </row>
-    <row r="87" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>138</v>
       </c>
       <c r="B87" s="30"/>
     </row>
-    <row r="88" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>140</v>
       </c>
       <c r="B88" s="30"/>
     </row>
-    <row r="89" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>142</v>
       </c>
       <c r="B89" s="30"/>
     </row>
-    <row r="90" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>460</v>
       </c>
       <c r="B90" s="30"/>
     </row>
-    <row r="91" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>459</v>
       </c>
       <c r="B91" s="30"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
         <v>583</v>
       </c>
       <c r="B92" s="30"/>
     </row>
-    <row r="93" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>461</v>
       </c>
       <c r="B93" s="30"/>
     </row>
-    <row r="94" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>462</v>
       </c>
       <c r="B94" s="30"/>
     </row>
-    <row r="95" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>463</v>
       </c>
       <c r="B95" s="30"/>
     </row>
-    <row r="96" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>464</v>
       </c>
       <c r="B96" s="30"/>
     </row>
-    <row r="97" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>465</v>
       </c>
       <c r="B97" s="30"/>
     </row>
-    <row r="98" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>466</v>
       </c>
       <c r="B98" s="30"/>
     </row>
-    <row r="99" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>608</v>
       </c>
       <c r="B99" s="30"/>
     </row>
-    <row r="100" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>152</v>
       </c>
       <c r="B100" s="30"/>
     </row>
-    <row r="101" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>154</v>
       </c>
       <c r="B101" s="30"/>
     </row>
-    <row r="102" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>467</v>
       </c>
       <c r="B102" s="30"/>
     </row>
-    <row r="103" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>157</v>
       </c>
       <c r="B103" s="30"/>
     </row>
-    <row r="104" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>468</v>
       </c>
       <c r="B105" s="30"/>
     </row>
-    <row r="106" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>162</v>
       </c>
       <c r="B106" s="30"/>
     </row>
-    <row r="107" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>164</v>
       </c>
       <c r="B107" s="30"/>
     </row>
-    <row r="108" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>166</v>
       </c>
       <c r="B108" s="30"/>
     </row>
-    <row r="109" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>168</v>
       </c>
       <c r="B109" s="30"/>
     </row>
-    <row r="110" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>469</v>
       </c>
       <c r="B110" s="30"/>
     </row>
-    <row r="111" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B111" s="30"/>
     </row>
-    <row r="112" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>173</v>
       </c>
       <c r="B112" s="30"/>
     </row>
-    <row r="113" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>175</v>
       </c>
       <c r="B113" s="30"/>
     </row>
-    <row r="114" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>470</v>
       </c>
       <c r="B114" s="30"/>
     </row>
-    <row r="115" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>471</v>
       </c>
       <c r="B115" s="30"/>
     </row>
-    <row r="116" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>472</v>
       </c>
       <c r="B116" s="30"/>
     </row>
-    <row r="117" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>473</v>
       </c>
       <c r="B117" s="30"/>
     </row>
-    <row r="118" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>474</v>
       </c>
       <c r="B118" s="30"/>
     </row>
-    <row r="119" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>182</v>
       </c>
       <c r="B119" s="30"/>
     </row>
-    <row r="120" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>475</v>
       </c>
       <c r="B120" s="30"/>
     </row>
-    <row r="121" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>495</v>
       </c>
